--- a/data/hotels_by_city/Dallas/Dallas_shard_142.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_142.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="877">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Rafael P</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Victoria M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r492145782-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Marsha E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r488213257-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>This hotel is perfectly located for air travelers and quick access to DFW.  The hotel has a free airport shuttle which runs every 30 minutes between 3am and 3pm. Off times are on request. I chose this location because my flight was in the morning and the hotel was closest to the Rental Car Center. After arrival, I decided to drop my car off the evening before, and the shuttle picked me up right out front.  Saved me another day of rental fees.  The hotel bistro and bar area is a different layout than other Courtyards - customized &amp; accommodating for the type of traveler that might choose to stay in this location.  While the hotel rooms have not been remodeled, the other amenities totally overcome it.  My room was very clean so I didn't count the decor as being a deficit.More</t>
   </si>
   <si>
+    <t>JLRGO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r480860943-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t xml:space="preserve">I enjoyed staying at this hotel. All the staff is friendly courteous and professional. I recommend this hotel for family or business. It is conveniently located near mayor highways and close to DWF. The workout room has three treadmills, one indoor bicycle and two ellipticals. The restaurant serves a limited menu with tasty options. Breakfast is very good, but is not included for every customer. But they offer breakfast voucher, you may want to check when making your reservation. </t>
   </si>
   <si>
+    <t>Russ74745</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r474103193-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Traveldayna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r473508066-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>Arrived after being delayed at a little after 12.  I called the hotel to get the shuttle and was told that it doesn't run that late.  Clerk stated that the website states that (checked again and it doesn't).  Taxi will get you there for $38. Please update your website!More</t>
   </si>
   <si>
+    <t>J757P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r463333627-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Ulikethat1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r459871760-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -315,6 +339,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Passwest</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r459846598-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -327,6 +354,9 @@
     <t>I was there on a Sunday night. Despite the nearby highways, the room was very quiet. Breakfast was served from 6:00 a.m. and shuttles to DFW began at 6:30 in the morning. In addition, they do offer a minimal menu of food in the evening until 10 p.m. This hotel was perfect for a short business stay!</t>
   </si>
   <si>
+    <t>KY Resident</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r459192424-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -345,6 +375,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>XVictorious</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r449163936-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -366,6 +399,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>lone6star</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r448558182-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -381,6 +417,9 @@
     <t>Picked this hotel as it was real closeTo the airport. Hotel amenities were great!Hotel room had a nice full sized balcony to relax on. Hotel features a Starbucks in the lobby and a nice business center.  Only negative was that I requested a wake-up call and never received it.  When I complained to the Manager the next morning he said that they called the wrong room.  Too bad for the other guests as they were awaken at 3:45am!!!!Shuttle service was excellent!</t>
   </si>
   <si>
+    <t>Brian L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r442776676-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -396,6 +435,9 @@
     <t>Was in the area and wanted to stay near DFW.  This hotel had good reviews, the price was right and location was easy to access.  If you have been to an updated Courtyard you know what you are getting here.  The property was clean, staff was helpful and courteous and the room was just what you would expect.  I've stayed at many of the local DFW Marriott properties and this one is in my top 3.</t>
   </si>
   <si>
+    <t>Jody A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r438501056-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -414,6 +456,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>MontrealLaggy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r437642970-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -429,6 +474,9 @@
     <t>Very close to the airport, you can drive to Dallas downtown or go to a Cowboys game easily. At the intersection of highways, It's  a very practical location to use what you need the most in Texas; a car! There's a small bistrot in the lobby if you need a snack or a quick breakfast. Very welcoming staff. Comfortable and quiet room even though you are close to the airport. Free shuttle to the airport. For a nice stay on a sports weekend...</t>
   </si>
   <si>
+    <t>Tom V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r400148102-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -447,6 +495,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>mavericktravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r393705672-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -459,6 +510,9 @@
     <t>All things mentioned in previous reviews:  cleanliness, spacious rooms,friendly staff, all true.  The shuttle drivers are excellent..we left our car here and when we returned to DFW late at night, we called for the shuttle...the driver was there already but waited for us to get downstairs to the pick up point...something not mentioned was all the road construction going on around the hotel..can be confusing if you are driving in..There is shopping close to the hotel, on Hwy.183.We would definately stay here again...it is just so close to DFW you feel you are on airport property.</t>
   </si>
   <si>
+    <t>dianarY975ES</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r391922188-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -474,6 +528,9 @@
     <t xml:space="preserve">Hotel close to many restaurants and movie place. Not too far from places to go shopping. Good hotel, good fitness room and outdoor pool. Came in and got checked in quickly. Grounds are nice and kept clean </t>
   </si>
   <si>
+    <t>Youssef E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r390881533-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -492,6 +549,9 @@
     <t>After Drive 3 hours crazy traffic and I got here 2 hours before checking plus I made a rookie mistake on my reservation trough Priceline.com As soon as I walk in was greeted with a huge smile from all girls at the front desk  they took care of us like a five star hotel felt like I am paying 500$ for the room with the service I got then all my problems got taking care of all I hear is ( no problem sir ..... Don't worry about nothing they got a room for me right the way A special thanks to SARAH the manager she was so soooooooooooooooo professional at her job love seen people like this loving there job she is a keeperMore</t>
   </si>
   <si>
+    <t>DebM2001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r383143994-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -510,6 +570,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>EM57_Traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r348955167-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -528,6 +591,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Charles T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r346392619-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -543,6 +609,9 @@
     <t>Stayed here one night during business trip after travel plans changed.   Very comfortable and quiet rooms, which surprised me given airplanes are flying over for takeoff and landing.  Friendly staff, clean and well kept facilities.  I would recommend for business or casual stay.  Located right by the expressway next to residence Inn and very close to good steak and other food. Whataburger is a 2 minute drive for a fast meal if desired - you can't walk (or at least I wouldn't recommend walking) to it because it is across from expressway exit.</t>
   </si>
   <si>
+    <t>ChrisFromCincinnati</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r343212508-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -561,6 +630,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>bmmartino</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r339245546-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -585,6 +657,9 @@
     <t>Stayed here after a long day at Six Flags before driving home to Houston.  I stay at all Marriott brands quite frequently and though this Courtyard is mostly what you'd expect from a Courtyard, it has two faults that ruin it which would be very easy to correct.First fault which completely lies with the franchised owner is just pony up for an average quality toilet paper.  Don't buy the cheapest one available.  Seems most Courtyards and Marriotts in general don't skimp here.Second fault probably lies more with Marriott than just this particular Courtyard, but if a branch isn't going to recognize Elite benefits such as free breakfast or extra points in place of breakfast it should be clearly indicated when making reservations on the mobile app or website.  I book Marriott because my loyalty has earned me benefits that I generally know I will be getting, and getting breakfast is a big one.  Why would I stay at this hotel when I can stay across the street at Embassy Suites for the same price and know I am getting free breakfast?More</t>
   </si>
   <si>
+    <t>MikeFromDestin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r334218659-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -603,6 +678,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>DaveCas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r331444394-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -621,6 +699,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Goshin-Inc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r331255834-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -636,6 +717,9 @@
     <t>I usually stay at the "other" Dallas area Marriott properties but for some reason, this property made me feel more welcome than other Marriott properties here, and elsewhere. It's not really any different than other Courtyards but the people, the management (Roman is the manager), the staff, even the food, just seemed to be more friendly and welcome. I recommend this property.</t>
   </si>
   <si>
+    <t>Norm N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r329948822-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -651,6 +735,9 @@
     <t>Great location for early departure, friendly staff, nice atmosphere and nicely appointed rooms. Knowledgeable staff on local restaurants and convenient transportation to DFW. Coffee was ready at 3:30 am.Favorite hotel near DFW, will return again.</t>
   </si>
   <si>
+    <t>Prestoni</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r328046682-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -666,6 +753,9 @@
     <t>I stayed there this week and found this place to be extremely clean and all the staff friendly and accommodating.  I ate at the Bistro for dinner and breakfast and the food was spot on.  The rooms was neat and tidy and the bed comfortable.  No issues with this place.  The airport is fairly close by so the occasional sound of aircraft could be heard but not too loud.</t>
   </si>
   <si>
+    <t>ATravelingDad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r327195535-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -679,6 +769,9 @@
   </si>
   <si>
     <t>We stayed here for a couple of nights to experience Jerry World!  The hotel was well priced and right next door to DFW Airport and not a far Uber Drive from Love Field.  The rooms were very clean and newer.  The hotel lobby included a barista serving Starbucks and had breakfast available.  The hotel has an available shuttle for Cowboys stadium at $22 RT.  We would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>aerobik1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r283030402-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
@@ -726,6 +819,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Heather M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r278973968-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -741,6 +837,9 @@
     <t>This location is very close to DFW airport. They offer a complementary 24 hour shuttle to and from the airport.Check in was smooth and quick.  Our room was a typical Courtyard room.  Our room was very quiet at night, we did not really hear the airplanes coming in and out of DFW.  Typical Courtyard décor.  Comfortable bed.  Very clean bathroom.  A café in the lobby for a snack or meal.  Internet was free.</t>
   </si>
   <si>
+    <t>faye_whitaker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r277714518-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -762,6 +861,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>J M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r273460921-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -777,6 +879,9 @@
     <t>Stayed at this property for two nights even though original plan was suppose to stay one night.  Front desk/reception gals were very receptive and helpful with all questions and accommodations.  Rooms were clean. Beds were extremely comfortable.  No complaints.  Definitely what I was expecting.</t>
   </si>
   <si>
+    <t>ColoradoTexan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r271748180-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -804,6 +909,9 @@
     <t>Good property, staff interaction was good.  I really wish Marriott would re-think not having coffee as a courtesy for business travelers like myself.  The cafe bistro was good, but seems at Courtyard all things are ale carte versus other Marriott properties.  As a Platium Elite, makes me basically steer away from Courtyards.More</t>
   </si>
   <si>
+    <t>GinBlox</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r270046262-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -819,6 +927,9 @@
     <t>We had a very pleasant one night stay at this hotel last weekend. I purposefully chose a hotel away from the theme &amp; ballparks in an attempt to avoid high traffic &amp; noise. This hotel was the right choice. We had an easy drive to various eateries and the Globe Life park area. The staff was friendly. And the room was comfortable &amp; clean. I would definitely consider staying here again.</t>
   </si>
   <si>
+    <t>Andy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r269794205-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -834,6 +945,9 @@
     <t>A typical Courtyard by Marriott. Functional, but clean &amp; tidy. Wouldn't recommend it for a long stay, but for a few nights, it's ideal. Good sized rooms, great beds and many rooms with an outside balcony.</t>
   </si>
   <si>
+    <t>Stephanie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r263390686-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -858,6 +972,9 @@
     <t>I spent a short night here. The hotel is very nice. The room was very clean. The staff were very friendly. They had a shuttle that picked me up from the car rental return so I didnt have to worry about it in the morning. They also had a shuttle that ran every 30ins to the airport. Nice, convenient hotel.More</t>
   </si>
   <si>
+    <t>james w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r262064262-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -882,6 +999,9 @@
     <t>This was my favorite place to stay when I traveled through DfW.  It is close to the airport with very easy access to the rental car center and airport.  This hotel has gone downhill over the years.  Staff is nice, but messy.  The check in area is a disaster- stuff everywhere, even when you are the inly person checking in.  Shuttle drivers are just plain scary and I taxi a lot!  Probabily my last time staying here again. More</t>
   </si>
   <si>
+    <t>KWBoyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r261486550-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1026,9 @@
     <t>The shuttle driver insisted that I was in the wrong spot to be picked up, although it was where a different driver and the hotel front desk told me to wait. The front desk girl charged my card for a room that was prepaid (and denied it when confronted until my bank was on the phone). I had a question about another charge and had to get corporate involved to get a straight answer. The weekend day manager never called me despite being asked to call twice. The night manager was apparently unfamiliar with their charging practices and was unable to explain the charge, and was annoyed that I wanted an explanation. The hotel had also unilaterally, and without so much as notifying anyone moved the conference I was attending from this facility across the parking lot to a sister facility. It wasn't a big deal, except that it again demonstrates the poor management of this property. All this is unfortunate, since the facility itself is beautiful and well maintained. The rooms are gorgeous, and the staff is pleasant.More</t>
   </si>
   <si>
+    <t>Mary F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r260802300-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1050,9 @@
     <t>My family and I stayed here during a cheer competition. It was very convenient to the freeway and was very neat and clean .It was also by several eateries. I was very satisfied with our stay. No complaints. Keep up the good workMore</t>
   </si>
   <si>
+    <t>ellender6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r260749037-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1071,9 @@
     <t>We visited your location during the ice storm of February 2015 for a dance competition. After we were done with the competition we realized that we left The pillows behind. Temperpedic pillows no less. House keeping was gone for the day and no one could help us at 9pm that night. Luckily they found them the next morning and held them for us to pick up two weeks later when we came back. I understood that the pillows weighed too much to mail and was very thankful that they were located. The staff was honest and helpful! Thank you! We will sleep much better tonight!More</t>
   </si>
   <si>
+    <t>jbeeman47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r258875320-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1098,9 @@
     <t>The beds were amazing and very comfortable even by American Standards! Close to the airport with free shuttle service.We waited a long time in the taxi for another couple to come down and travel to the airport for the morning flights. The manager gave the taxi driver the go ahead after we waited 15 minutes without the people joining us. (The taxi was called for the extra overflow of hotels guest). Also, we came in late the night before and the shuttle stops all pickups at 10 PM. We had to find the taxi stand and then waited for 45 minutes in the cold windy night.More</t>
   </si>
   <si>
+    <t>AR987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r255179373-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1125,9 @@
     <t>Recently traveled here for business. Meetings were near the airport so the property was conveniently located. The rooms were standard and clean. The real standout feature of the hotel is the people who work there. Friendly, helpful staff from the shuttle drivers to the front desk to housekeeping. Special recognition to the breakfast team - VERY friendly and made me feel welcome which is a nice touch when you are traveling for business. More</t>
   </si>
   <si>
+    <t>Richard S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r246879308-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1020,6 +1155,9 @@
     <t>Stayed here due to its proximity to DFW airport.  Very clean and well maintained property.  Front desk staff was very friendly and helpful to our needs.  Rooms are equipped very nicely with all of a travelers needs.More</t>
   </si>
   <si>
+    <t>jaykid1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r238775499-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1176,9 @@
     <t>I stayed here on a business trip and was pleasantly surprised. The staff is friendly an helpful. The restaurant has some good food. The rooms are typical and I hate the pillows but that is more of a personal thing. Overall I would stay here again and suggest it to other. More</t>
   </si>
   <si>
+    <t>bscrim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r237848789-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1206,9 @@
     <t>Professional front desk albeit in a corporate, robotic kind of way with Texas accents - I guess there's technically nothing wrong with that... + The free shuttles to the airport leave every 15 minutes! -  No free wifi, ($13) unfortunately the norm at a Marriott.More</t>
   </si>
   <si>
+    <t>Jeff A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r237185740-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1089,6 +1233,9 @@
     <t>Stayed here recently for a company training function and while the overnight rooms were standard quality I was taken back from the front desk team. They would be better suited to work behind the scenes or be trained on how to greet and interact with guest with a SMILEWhat really surprised me was the lack of engagement of the Assist  GM on the overnight crew . When I asked to speak with her regarding event billing at 7:30 at night, she was too busy to speak with me and told the front office person to tell me to speak with the sales dept the next day. On the other hand, the team that supported our function was awesome and the food was above average.All in all, not a bad hotel, but needs some adjustments up front and with managment.More</t>
   </si>
   <si>
+    <t>adam-kelley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r237083316-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1248,9 @@
     <t xml:space="preserve">i was here one night.  The rooms are comfortable, well appointed, bathroom ok, no hand lotion only shampoo and conditioner. Nice lobby set up, good market selection.The staff was very friendly, with one exception. I left my wallet at the front desk during check in. I was up in my room and noticed I didn't have it so I started searching all over the place.  When I called down they had it.  I was surprised they wouldn't call to let me know. Other than that all good. </t>
   </si>
   <si>
+    <t>Lwomack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r232056551-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1269,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Lillie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r226702390-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1137,6 +1290,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>AndyW_UK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r226168274-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1308,9 @@
     <t>Free 10 minute shuttle to airport, big rooms, nice cafe and bar, open courtyard seating area with cooling air sprays, outdoor pool, friendly staff, great value for money. Ideal stopover for Dallas Fort Worth airport.</t>
   </si>
   <si>
+    <t>BarbRose</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r221317711-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1170,6 +1329,9 @@
     <t>This hotel is gorgeous!   We stayed on reward points in a one bedroom suite while the Central A/C in our house was being replaced.The attention to detail in the design is amazing.  I've stayed in some pretty swanky places and this is up there was most of those.  The rooms are designed more like a boutique hotel room.  You just won't believe your staying at a chain hotel   I had watch them build this hotel and thought it took them forever, but it was worth it.  Super nice staff too.  .  One thing that might take it down a half star for me, is that the bed was a little firm.  I do like a softer mattress because I'm old and my bones hurt.  Someday, like pillows, I hope hotels can give use a mattress choice.More</t>
   </si>
   <si>
+    <t>Mark M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r219766236-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1359,9 @@
     <t>I had business in the area, although this is very close to DFW. This is probably one of the best places I have ever stayed. The hotel was super clean, even the bathrooms. The staff was super helpful and friendly. Everyone (and I do mean everyone) that I met greeted me and asked if I needed anything.It was such a great experience I wrote to the hotel chain so they would know what a great job this location was doing. Their breakfast selection was good and they had good coffee (a necessity). If you are in the area for any reason this is the place to stay.More</t>
   </si>
   <si>
+    <t>Jak-cra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r219574917-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1218,6 +1383,9 @@
     <t>Easy to get to, near restaurants and pharmacies, low traffic area.  Food was good, convenient.  I was with a co-worker who was really demanding, and staff handled her very professionally.  Service was good, friendly staff, quiet clean room.  Will stay again.  One guy on food Ryan was top notch.More</t>
   </si>
   <si>
+    <t>MaryEllenB8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r215953094-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1242,6 +1410,9 @@
     <t>I stayed for three nights. The hotel looks brand new, the room was really lovely. Clean and nciely decorated a little differently from other properties I've stayed in, the curvey couch was nice.  The staff was friendly and accommodating and the little bistro in the lobby was a nice place to relax with a glass of wine.More</t>
   </si>
   <si>
+    <t>Ga8tr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r215177563-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1431,9 @@
     <t>Overnight stay for a guys weekend. Clean, friendly, comfortable. Near the interstates and dfw (note that love field airport is a 15 minute drive away). There were lots of families and youth baseball teams staying here as well and they seemed to be having a good time. Pool, nice business center, access to computers and flight info. Only down side was only some rates include breakfast. Otherwise the breakfast is cafe style and a bit pricey but convenient if you need it.More</t>
   </si>
   <si>
+    <t>DavidBagwell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r211654698-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1281,6 +1455,9 @@
     <t>We travel to Irving/Dallas pretty regularly and have stayed at several hotels in the area.  This hotel was far above and beyond the others in the area.  Plus, the price brings it to the top in our book.  The staff was super helpful and very friendly.  The Bistro breakfast room was superb.  We were traveling on a pleasure trip as a family and had two rooms on different floors.  Both rooms were very clean and comfortable - consistent on both floors.  The hotel is directly under the flight path of a busy runway from DFW, so there was some plane noise - but it wasn't overly obtrusive and is to be expected at an airport hotel.  Great job, folks - we'll be back often.More</t>
   </si>
   <si>
+    <t>Greg S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r211109423-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1299,6 +1476,9 @@
     <t>I fly to Dallas at least twice a year and stay here every chance I get.  Alison and Maritiza will take excellent care of you in the morning for breakfast, and in the evening Elmo and Raul run a great bar.  The food is very good, it's five minutes from the rental car return and the hotel is clean and well kept.  The only negative to their location is that there are no restaurants within walking distance and mostly just fast food in and around the immediate area; but that's not the hotel's fault.More</t>
   </si>
   <si>
+    <t>FranceEnglandGreece</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r205406684-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1323,6 +1503,9 @@
     <t>Dropped off spouse and the shuttle to Dfw was so nice...  for me to not be rushed and also to not worry about parking and getting around the construction mayhem. Drawback...They  say they have a Starbucks...they have Starbucks coffee but not a real Starbucks.More</t>
   </si>
   <si>
+    <t>DMMSKM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r199673154-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1341,6 +1524,9 @@
     <t>I want to do a shout out to Marriott's Nicholas Dacheux.  He was fabulous!! We were in Dallas to settle the affairs of my sister-in-laws father who had passed away, so this was not a fun trip.  However, every night we went back to the hotel, Nick was there to greet us with a genuine smile and was so helpful in sending us to great restaurants where he knew we could relax and unwind.  The hotel was incredibly clean and updated.  It may seem strange to stay at a hotel near an airport but I would highly recommend this one.  It is very close to a lot of great areas and yo cannot beat the personal service.  Thank you again Nicholas!More</t>
   </si>
   <si>
+    <t>Martin R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r198446143-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1365,6 +1551,9 @@
     <t>We stayed here before flying out of DFW for the reason of its closeness to the airport and car rental return. It is close to the highway. The rooms were comfortable although the TV is quite small. There is a contemporary lobby with a bar and bistro and room service (we did not use this) together with a Starbucks. The beds are fine but the pillows are too soft for my liking. There is plentiful parking and a shuttle bus. The hotel provided a very useful restaurant suggestion list (printed) with addresses. Again, this was only for a night before we flew out but was worth it.More</t>
   </si>
   <si>
+    <t>John L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r197089784-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1389,6 +1578,9 @@
     <t>I have stayed here for the 2nd time during my stay in Dallas.  The staff is accommodating to any of your needs.  The hotel is quiet and professional.  The parking lot always had plenty of room and was well lit.  I felt very comfortable here and would recommend anyone to stay here going forward.  When I visit Dallas, this will be my hotel.  It was a great stay.More</t>
   </si>
   <si>
+    <t>Kim L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r195378752-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1413,6 +1605,9 @@
     <t>Only stayed here one night. Very fast checkin process. Parking lot well lit and safe. Work out facility very nice. Did hear a couple planes fly overhead around 10pm other than that it was very quiet. Seemed to be all business people staying at the property. I asked for a room fridge and one was brought to my room very promptly. No complaints.More</t>
   </si>
   <si>
+    <t>Hoxbar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r183253673-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1431,6 +1626,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>SC_Dawg1996</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r182030076-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1449,6 +1647,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>58jesser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r181513439-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1470,6 +1671,9 @@
     <t>My wife and I went to Dallas from Miami for a weekend in October to see the Cowboys/Redskins game. My wife found a great deal online for a room at the Courtyard Marriot DFW. We were very pleased to discover that this hotel was in a quiet business district away from any local noise or traffic. The hotel was very clean, and the room was much larger than I expected. All the staff that we encountered were very pleasant and friendly when we arrived. However, what sets this place apart from many other hotels is the honesty and helpfulness of the staff. On Monday, when I arrived at the airport after checking out of the hotel, I discovered that my class ring of 26 years was not on my finger. After a brief moment of panic, I called the hotel reception desk. At that time I spoke with a very nice lady at the desk, who took my name and information and told me that she would check with the cleaning staff to see if my ring was in the room. About 10 minutes later, the lady called back and told me that my ring was found! Since I was at the airport about to go through TSA security, I asked if she would ship the ring to me at my expense. She then suggested that if I could go back outside to the curb, she would have a shuttle...My wife and I went to Dallas from Miami for a weekend in October to see the Cowboys/Redskins game. My wife found a great deal online for a room at the Courtyard Marriot DFW. We were very pleased to discover that this hotel was in a quiet business district away from any local noise or traffic. The hotel was very clean, and the room was much larger than I expected. All the staff that we encountered were very pleasant and friendly when we arrived. However, what sets this place apart from many other hotels is the honesty and helpfulness of the staff. On Monday, when I arrived at the airport after checking out of the hotel, I discovered that my class ring of 26 years was not on my finger. After a brief moment of panic, I called the hotel reception desk. At that time I spoke with a very nice lady at the desk, who took my name and information and told me that she would check with the cleaning staff to see if my ring was in the room. About 10 minutes later, the lady called back and told me that my ring was found! Since I was at the airport about to go through TSA security, I asked if she would ship the ring to me at my expense. She then suggested that if I could go back outside to the curb, she would have a shuttle driver bring the ring to me. Less than 15 minutes later, I had my ring back on my finger! It is great to see that there are still honest people in this world. I am very greatful for that! Thanks to all the staff at the Courtyard Marriot DFW! The Cowboys won, and I got my ring back! Great trip!!!More</t>
   </si>
   <si>
+    <t>Jodie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r180643235-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1485,6 +1689,9 @@
     <t>Very nice greeting upon arrival!  Staff was warm and friendly, recommended some eateries in the area.Hotel is wonderfully updated- very fresh/earthy/green feel.  Very refreshing and relaxing!Commons areas felt inviting and many different options for lounging, comfortable seating areas.  Loved everything about this.Rooms were wonderful- these guys paid attention to the details that really set them apart.Close, 6 minutes, from airport/ rental car return.If all Courtyard Marriotts are like this, maybe my new favorite chain!!!</t>
   </si>
   <si>
+    <t>dreaming*of*a*beach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r180407427-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1500,6 +1707,9 @@
     <t xml:space="preserve">This Courtyard is clean, has friendly staff, and is excellent for parking your car for vacation trips. The airport shuttle runs every 30 minutes. I wish breakfast was available earlier for red eye flights. By the way, breakfast is not complementary. I always have a great experience at this property. I'll definitely stay again. </t>
   </si>
   <si>
+    <t>purpletrackcoach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r179204276-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1515,6 +1725,9 @@
     <t>I stayed during the week of 9/23. The staff was very welcoming and friendly at check-in. The room was clean with all necessary amenities. The bath had some paint peeling but was clean. First time here but bathroom seemed to be outdated. I had trouble using the wireless Internet and their help desk was great with resolving the problem. There are eateries and a mall nearby so the location is good especially for DFW access. I'll stay here again.</t>
   </si>
   <si>
+    <t>Stacy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r177647973-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1530,6 +1743,9 @@
     <t>We went to the Courtyard to celebrate our wedding anniversary. We enjoyed the shuttle takings us to dinner and back to the hotel. Very nice employees. The room was nice with a sliding door right to the pool. There were a lot of children running the halls that night but that was the only complaint we had.</t>
   </si>
   <si>
+    <t>Zoulek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r173944482-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1548,6 +1764,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Alice M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r168069437-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1563,6 +1782,9 @@
     <t>Stayed there for 2 nights to be close to the airport, clean , nice staff and quick transportation to the airport. The AC was a little loud but when I complained about it, they quickly got someone checking it.</t>
   </si>
   <si>
+    <t>LengraMelbourne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r167649719-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1584,6 +1806,9 @@
     <t>We stopped here for 2 nights, wanted to be close to the Airport for a very early flight to New Orleans. Spotlessly clean and inviting, room was spacious and comfortable. The staff were friendly and helpful, especially the young man who worked in the bistro and cooked our meals. We cannot praise him enough. It was obvious he enjoyed his work although he only started working there a couple of moths ago.He was helpful with our dinner choices. The quality of the food was excellent. This is a smaller type Hotel, but could teach the larger ones a thing or 2 about customer service. The outside area is inviting with lovely gardens and a swimming pool. Our account was under our door on departure day, some fresh hot coffee was waiting for us and they provide a free shuttle to the airport. Would highly recommend this hotel to anyone wanting to stay close to the airport.More</t>
   </si>
   <si>
+    <t>TIM B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r166624646-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1599,6 +1824,9 @@
     <t>Stayed here after a whole day of traveling.  Rooms were very spacious and clean, and staffwas very friendly.  There is a Bar located inside the lobby, an outdoor pool and hot tub, evenan outdoor fire pit for winter and fall evenings.  Very close to DFW Airport, and Hotel gave mea Shuttle ride to the Airport and also staff gave us a ride to a nearby Applebee's for a late nightdinner upon arrival.  Beds were very comfortable, and rooms were quiet for sleeping.  I will definitely stay here again.</t>
   </si>
   <si>
+    <t>theokengineer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r164185165-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1617,6 +1845,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>GinaGosh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r163175285-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1638,6 +1869,9 @@
     <t>I would find a reason to go to Dallas just to see these wonderful people again!  Yes, the hotel itself is convenient, clean and very comfortable. But the people are what sets it apart. When you arrive at a hotel, you are often tired, jet-lagged, exhausted, and just ready for a clean room and a friendly smile. This group of employees at the Courtyard DFW/Airport South understands that, and goes out of their way to exceed expectations. Both of my visits here were for work purposes, and beginning with Lisa in the Sales department who made sure every detail was accounted for, continuing with Annie at the front desk who wowed us with her above-expectations service, to the always-smiling Maritza at the cafe who made us feel like family, Marriott should be proud to recognize this group of outstanding individuals who know how to work together to build lasting relationships and create raving fans. Well done!More</t>
   </si>
   <si>
+    <t>Michael R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r163082009-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1659,6 +1893,9 @@
     <t>It's a good thing this hotel is close to the airport, given how difficult it is to drive in the D/FW area. Check-in went very smooth. The room was clean, but was a bit small, not much room for an infant to crawl around. The bathroom was a bit cramped also. When we asked for a pack-n-play one was delivered within 5 minutes, with sheet and blanket. The door cards were finicky, sometimes taking 5 tries to unlock the door. The pool was good sized and shaded in the afternoon. Breakfast was filling and had a good variety, including fresh fruit, yogurt, sausage, scrambled eggs, and juice. The staff was VERY friendly, especially towards our 9 month old. It's surprisingly quiet, given the busy roads nearby. There are over a dozen places to eat nearby, including one across the parking lot, for which we got a coupon from the front desk at check-in.More</t>
   </si>
   <si>
+    <t>kimmie j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r162042752-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1674,6 +1911,9 @@
     <t>In town for a girls weekend getaway. All travel agents. Hotel grounds full of trash,food wrappers and beer cans. All trash bins full of garbage. Kids running up and down the halls. Called front desk and was explained to that they were aware of the problem, "we already received a couple of calls". Temp in room warm, air unit in room broken, no one on duty to assist in repairing it. Restaurant staff top notch.  Bring your own iron, in room irons old and dirty will stain your clothes</t>
   </si>
   <si>
+    <t>olive21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r161619891-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1689,6 +1929,9 @@
     <t>Having an airport shuttle 24/7 was a big plus. Hotel is very close to airport yet pretty quiet hotel over all. The room was nice. The bed was comfortable. There is a small couch and desk area in the room. The bathroom was small but clean . There is a restaurant on site a big plus when you are traveling. It was a good overnight stay.</t>
   </si>
   <si>
+    <t>AmeliaFan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r156826438-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1707,6 +1950,9 @@
     <t>First, thank you to the staff who were so kind to my husband and me. We were feeling very ill while on vacation, and these folks went out of their way to help. Even though they don't technically offer room service but provide a bistro menu in the lobby, the staff was kind enough to bring my husband and me chicken noodle soup to our room. They were also helpful in providing information on the nearest medical facilities as well as directions. The rooms are well maintained and exceptionally clean. Like a previous reviewer, we also experienced a lack of hot water in the shower (second floor room). This was at 5:30 a.m., not a high-usage time. I reported it to the front desk upon checkout, and they said they would look into it. All in all, we would stay here again based on hospitality, cleanliness and easy access to DFW Airport's car rental return center. More</t>
   </si>
   <si>
+    <t>threepowells</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r156100256-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1726,6 +1972,9 @@
   </si>
   <si>
     <t>Stayed here one night before flying out to California.  Hotel is very nice, well appointed rooms, and lets you park your car for a week without charging you.  The problem I had was 2 cold showers!  The one at night I just chalked up to everyone using the hot water.  But in the morning when it was even colder, I wasn't very happy.  I mentioned it the front desk as I was leaving, and she said she would make a note of it.  Nothing else.  So, I completed a Marriott survey and didn't get a response, and then emailed Marriott from their webpage and was finally contacted by the manager of the Courtyard.  Apparently, during my stay they were having water valve problems.  She apologized and refunded my points.  I was satisfied with this resolution and will give it another try if in the area.  Also, we ordered from the Bistro and the food was great!More</t>
+  </si>
+  <si>
+    <t>JJLJOregon</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r155464301-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
@@ -1751,6 +2000,9 @@
 The king bed in our room was firm but comfortable. It had with lots of pillows, and nice linens. The room also had a sofa, a flat screen TV and nice business desk. The décor was nice, cheery and warm in our room, and the lobby. The Wi-Fi worked well in the room. The climate control for the room worked well and kept the room at a comfortable temperature. The room was very clean. We had breakfast in the Bistro. While the selection was limited, the food was tasty and the service was good. We liked having the bath vanity separate from the rest of the bathroom, although the vanity was small and did not allow much room for our toiletries. The bathroom looked like it had several touch ups to the paint that did not match the original paint...We spent one restful night here after flying into DFW. This hotel is very conveniently located just to the south of DFW airport, with easy access to both the DFW car rental facility and freeway. There is a hotel shuttle to DFW. The staff at the hotel was friendly and professional. The lobby is one of the “new-concept” Courtyards with Starbucks products and a Bistro. In addition to the Starbucks Coffee drinks at the Bistro, there was also free coffee near the information board in the lobby. The lobby is very spacious. The rates were very reasonable, with free parking. The king bed in our room was firm but comfortable. It had with lots of pillows, and nice linens. The room also had a sofa, a flat screen TV and nice business desk. The décor was nice, cheery and warm in our room, and the lobby. The Wi-Fi worked well in the room. The climate control for the room worked well and kept the room at a comfortable temperature. The room was very clean. We had breakfast in the Bistro. While the selection was limited, the food was tasty and the service was good. We liked having the bath vanity separate from the rest of the bathroom, although the vanity was small and did not allow much room for our toiletries. The bathroom looked like it had several touch ups to the paint that did not match the original paint very well. The bathroom could stand a new coat of paint. Our only complaint was the combo tub/ shower drained very slowly when taking a shower. I think the drain needed some work.More</t>
   </si>
   <si>
+    <t>susan6868</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r154937259-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1769,6 +2021,9 @@
     <t>Stayed for a few nights while on business in the Dallas area and needed a hotel very close to the airport.  This hotel sits 1.5 miles away.It was fine, just what you'd expect from Marriott Courtyard.  Clean rooms, friendly staff, free shuttle, complimentary coffee 24/7.  There is a small bistro and bar and I was happy to be able to get get breakfast cooked to order albeit a very limited menu.Overall this is a great place to hang your hat for the night when buzzing through the Dallas/Fort Worth area.   The is nothing of interest nearby so you're stuck there without a car.I would use this property again.  Very good experience.More</t>
   </si>
   <si>
+    <t>wizofwoz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r154715450-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1787,6 +2042,9 @@
     <t>We chose this Courtyard because for a fair price on a one night stay, you can park your car for free for up to 7 days.  The hotel is located so close to the south exit you never even get on freeway 183.  This makes for quick drop off and pick up service.  The hotel is very nice, beds are comfortable but it IS very tight in the room.  The sink area is so small and what little space there is, is occupied by the coffeemaker, hand towels, soaps, etc.  There were 3 of us and no space to put our toiletries.  The water pressure is strong, which is good for the shower but water would splatter up and out of the sink.  Free wireless worked great.  My son complained that there weren't alot of channels on the tv.  A/C ran quietly.  No complimentary breakfast but you can purchase food items in the lobby.  All the employees we came in contact with were very pleasant.More</t>
   </si>
   <si>
+    <t>eli_lilly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r154692591-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1802,6 +2060,9 @@
     <t>I stayed here on a business trip and it was very enjoyable.  The bistro/bar in the attractive lobby was comfortably full with fellow professionals well into the evening hours, even on a Tuesday.  There was an unusually large amount of seating throughout the lobby and everyone was relaxing and having a few cold ones.  Great ambiance.  The area next to the front desk is set aside as a 24 "general store" of sorts, which solves the problem of where to get a bottle of water at 2am.The room looked fresh and was slightly larger than average.  Room WiFi was easily accessible.  The desk in the room had a lower-height pull out section which was excellent for working.  This hotel is definitely above average for a business class hotel and I highly recommend it.More</t>
   </si>
   <si>
+    <t>ArCandyGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r154583711-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1817,6 +2078,9 @@
     <t>This hotel is very convenient for travel in and out of DFW.  The staff was very courteous and helpful.  The hotel provides 24 hour shuttle service to DFW and will allow you to park your car free of charge for 7 days which was extremely helpful for a short business trip.  It's an older hotel that has been updated to the newer Courtyard furnishings etc. and is kept clean and in good condition.</t>
   </si>
   <si>
+    <t>sitesea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r154459306-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1841,6 +2105,9 @@
     <t>We chose this location based on the availability of a 24 hour airport shuttle and the in house Bistro dining for a late dinner.  We called for the shuttle upon landing at DFW and it arrived within 15 minutes.  The late evening ride was only 5 minutes to the hotel. The staff was welcoming and the Bistro staff served us a hot, quick meal with a friendly attitude even though it was nearing the 10PM closing time.  The lobby is decorated in a modern style with lots of reading material and seating options.  The room was clean, the bed was comfortable.  The furnishings were cheerful red and gold colors. The bathroom was quite cozy, but worked OK for an overnight. The breakfast Bistro choices were varied and tasty.  I appreciated the healthy bowl of oatmeal with nuts and fruit .  The booking rate, shuttle and in house Bistro made this a super value for a quick overnight while traveling.More</t>
   </si>
   <si>
+    <t>Kara S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r153569878-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1859,6 +2126,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>TechMarauder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r153395325-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1880,6 +2150,9 @@
     <t>This courtyard is new, friendly, inviting and it shows.  The beds are amazingly comfortable, the Internet speed is great, the associates take pride in their work, and at the end of the day, it was a restful one night stay.  More</t>
   </si>
   <si>
+    <t>marine2531</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r153395158-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1895,6 +2168,9 @@
     <t>Spent a night here in DFW last week. Arrived at the hotel very late as I was working in the airport. When i arrived, staff were very friendly. Check in was a breeze. This is an updated Courtyard so the lobby area is very nice. They have computers/printers to print boarding passes. I did not use the shuttle but I understand that you have to call to arrange a pickup. The room was good. Small flat screen TV. The bed was pretty stiff. I was not a fan of that. About a 10 minute drive from the airport. Overall, it's a serviceable Courtyard and I would stay again.More</t>
   </si>
   <si>
+    <t>decoydonna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r153212076-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1919,6 +2195,9 @@
     <t>We stayed here for one night. Very convenient location to the airport and the airport shuttle was reliable.  When we checked in the staff were very friendly and granted our request for a specific room location.  The room was a typical courtyard room and was very clean.  The mattress was very comfortable.  The staff in the restaurant were friendly and the breakfast was great.  I would stay here again.More</t>
   </si>
   <si>
+    <t>Garytrav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r152255289-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1941,6 +2220,9 @@
   </si>
   <si>
     <t>Disappointed in Courtyard.  When entering on first checking in or just coming back from an evening meal, the staff at the front desk are very welcoming and go out of their way to welcome you.  The hallways and room were clean, quiet and the bed was comfortable.  So why am I disappointed?  The rooms were small and the TV was placed in an inconvenient location.  There was no lotion provided in the bathrooms. My hands dry out in the winter months (especially now with the frequent hand washing because of the flu going around).  When brought this to the attention of the front desk staff they provided me with one, but there was never one provided in the room.  Lastly, in most hotels they provide basic coffee to us business travelers in the mornings, to take with them.  Not here, all of the coffee is behind the counters and has to be purchased, and is only available during serving hours.  I felt I was being nickel-and-dimed, and at $134 a night, I feel they should at least provide the basic cup of coffee to the business traveler at irregular hours.More</t>
+  </si>
+  <si>
+    <t>Jeffyorama</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r152227367-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
@@ -1967,6 +2249,9 @@
 We had dinner at the restaurant one night.  The food was very good, but from a limited menu.  The lobby and lounge were very nice.  The pool was closed when we were there, but you could use the one at the Marriot Residence Hotel across the parking lot.  It was a very quiet place when...We stayed here before a flight back to Toronto for an overnight which turned into 3 nights because of a snowstorm in Toronto.  The staff were excellent!  They went out of their way to help us out.  We had returned our rental car since we expected to fly out the next day, but our flight was delayed another 2 days.  There is a complimentary shuttle which will take you anywhere within a 5 mile radius and we took advantage of it 2 of the 3 days.  We also had the manager driving the shuttle once.  Looks like everyone at the hotel helps out where help is needed, which I think is a good thing.The room was very nice, but had no refrigerator or microwave.  Beds were comfy.  Internet was good (but I learned not to use P2P or you will get cut off for 3 hours or so, which I guess is reasonable).  We got pizza one night and the staff were nice enough to let us use the staff refrigerator for the leftovers and their microwave to warm them up the next day.We had dinner at the restaurant one night.  The food was very good, but from a limited menu.  The lobby and lounge were very nice.  The pool was closed when we were there, but you could use the one at the Marriot Residence Hotel across the parking lot.  It was a very quiet place when we were there, but apparently it's busier on weekdays.There was a small problem with them charging more than agreed to, but it was easily rectified.  Overall, a very enjoyable stay!More</t>
   </si>
   <si>
+    <t>Stephen W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r142994635-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1985,6 +2270,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>leoperales</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r139701686-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2003,6 +2291,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>NEFAST</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r139472235-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2021,6 +2312,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>apmatera</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r139439649-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2039,6 +2333,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>pagelynn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r135731837-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2060,6 +2357,9 @@
     <t>Stayed a night at the DFW South location before having to move over to the Embassy Suites DFW South for a conference.  The pick up from the airport was pleasant, the registration was smooth and even got an upgrade to a two bedroom suite which was totally unexpected.  The food in the Bistro was good, dinner and breakfast for me and the only thing that was disappointing was the pool was not as clean as I would have liked, but in their defense, they have a big tree dropping leaves on it and it was over 100 degrees outside ... guess only crazies like me want to lay out in that.  But seriously, the fitness center is top notch and not a face that I came in contact with did not have a welcoming smile.  Thanks to everyone there and hope to see you again soon!More</t>
   </si>
   <si>
+    <t>probkauz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r133851658-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2075,6 +2375,9 @@
     <t>Checked into the DFW Courtyard on a Friday, met with great service! They were very gracious and loaned me a phone charger, made every effort to make sure my stay was perfect. Love the lobby area, sat and read some of their books, very relaxing. Had a balcony on my room, watched the sunset. I highly recommennd this hotel, and a quick KUDDOS to Matt . . . still owe you a ride in the Mustang!</t>
   </si>
   <si>
+    <t>JWDB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r130608895-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2090,6 +2393,9 @@
     <t>We stayed one night before flying back to Australia and found the hotel to be clean, comfortable and efficient. Dinner in the hotel restaurant was good and the barman/waiter was friendly and attentive. The only negative was that this was the only one of 13 hotels on our 6 week road trip in the southern states that charged for internet usage. I should have been more attentive to the hotel details when making the booking but can't understand the need for such a cost to guests when wi-fi is free in so many other places.</t>
   </si>
   <si>
+    <t>saharadweller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r130426553-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2108,6 +2414,9 @@
     <t>I was scheduled for a business meeting at this hotel.  I decided to stay there for convenience.  It was a two night stay, all went well from the get go.  I called from the airport, the shuttle soon arrived, the driver was entertaining and gave the other passenger and me some usefull tips about the new bistro set up.Check in was smooth, they gave me what I requested.Room was fine, super clean, nice comfy beds and pillows, flat screen tv that had a working remote.  I used the hot tub and the pool and the exercise room, all good.Dinner was fine. I did not have a vehicle, and there isn't anything else within walking distance.The thing I LOVED were the people, the staff, they were the most friendly I've encountered! As a group they all were friendly, helpful, etc.  What could have been a routine business trip ended up being a great getaway!More</t>
   </si>
   <si>
+    <t>Hniki234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r129834193-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2139,6 +2448,9 @@
   </si>
   <si>
     <t>April 2012</t>
+  </si>
+  <si>
+    <t>biloxibound</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r77274281-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
@@ -2164,6 +2476,9 @@
 Well, construction or not, our rooms were great.  Everything was super clean.  Rooms were really good size.  Comfortable beds, easy chair.  Microwave and desk and nice size TV's.  We checked in about 3, were in the rooms talking about the next days meeting until well after 5 pm which is the time the construction crew stopped work, and not once did we hear the noise of a hammer or jackhammer.  We...First impression as we pulled up to the main entrance of the hotel and saw it taped off with yellow caution tape, tarp covered entrance, and the sound of jackhammers and contructioon, was "you've got to be kidding"!  After debating to go in or not (this was after we had verified the hotel address to see if we were at the right hotel, we went into a makeshift lobby with tarps draping the area behind the table the staff were working off of.  After our initial questions of, are we going to hear this all day long, is it going to be dusty, etc. etc. we were assured that the first couple floors of the hotel were not being used to elimate construction noises being heard in the guest rooms, and that we would be well taken care of and if we were not satisfied with our rooms, locations etc. to let them know and they would be happy to do their best to see that we were satisfied.Well, construction or not, our rooms were great.  Everything was super clean.  Rooms were really good size.  Comfortable beds, easy chair.  Microwave and desk and nice size TV's.  We checked in about 3, were in the rooms talking about the next days meeting until well after 5 pm which is the time the construction crew stopped work, and not once did we hear the noise of a hammer or jackhammer.  We had two rooms, situated close to the elevator and ice machines and I personally slept the best I have in a long time.The breakfast buffet was delicious with a very large selection i.e. eggs, bacon, fruits, cereals, waffles, assorted breads and pastries.  Throughout our stay, the staff was excellent.  Everyone greeted you warmly and were very interested to know if there was anything they could do for us.A downside for a good number of the folks that came to the training in the hotel on Thursday was that the air conditioning in that area of the hotel were not working.  I admit it became a bit stuffy, but for several of us who normally freeze at meetings, it was very tolerable.  Not so for others.  However, this is nothing the hotel nor it's staff had control over, but they were on top of it immediately trying to get it working.  In the meantime they brought in several fans to help move the air, which helped.    By late afternoon, they realized they'd have to bring in some engineers and offered to the facilitators for our meeting to make other hotel arrangements for Friday's meeting, offered discounts on the room rates for the inconvenience and later that evening, delivered gift boxes filled with...More</t>
   </si>
   <si>
+    <t>MightyMe1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r68100334-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2182,6 +2497,9 @@
     <t>June 2010</t>
   </si>
   <si>
+    <t>dawgday13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r61926200-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2200,6 +2518,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>ChrisMistry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r54051302-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2218,6 +2539,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>DaveySF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r30252999-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2236,6 +2560,9 @@
     <t>April 2009</t>
   </si>
   <si>
+    <t>Sara U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r23760933-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2257,6 +2584,9 @@
     <t>I stayed here before an early morning flight from DFW, and it was a very pleasant experience.  I arrived on Christmas night, and the shuttle driver immediately offered to drive me to an open restaurant nearby if I hadn't had dinner yet.  The front desk attendant was also very friendly.  My room on the 3rd floor was quite large with a king bed and a sitting area.  Internet was free.  The TV was older, but it was large enough for the room.  Bathroom was adequate.  The morning of my flight, the shuttle driver was downstairs and ready to go on time.  The front desk attendant offered to call the airline and double check the gate.  I was really impressed with all the employees, but that seems to be the Marriott way.  I definitely recommend staying here before an early flight or a late arrival.More</t>
   </si>
   <si>
+    <t>LuvMyPug2008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r20078051-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2278,6 +2608,9 @@
     <t>If you need to be centrally located between Dallas and Fort Worth or close to the airport this is a good option.  Easy access to major highways and equidistance between Dallas and Fort Worth.  The inside is clean, front desk staff is very friendly and there was some life in the lobby in the bar area if you are traveling alone.  The breakfast was your standard Courtyard experience but a nice option before heading out for a day.  I was on business but wouldn't suggest this if you are looking for a "real" experience - ie: it is off a major road etc. Overall it is good experience but not a luxurious one!More</t>
   </si>
   <si>
+    <t>goldenchica</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r13055475-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2296,6 +2629,9 @@
     <t>January 2008</t>
   </si>
   <si>
+    <t>L-B-Tulsa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r7871016-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2309,6 +2645,9 @@
   </si>
   <si>
     <t>Nice, clean hotel with good access to DFW and extended parking.</t>
+  </si>
+  <si>
+    <t>goodsportMidland_TX</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d254915-r4363194-Courtyard_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
@@ -2828,43 +3167,47 @@
       <c r="A2" t="n">
         <v>44810</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>127355</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2884,50 +3227,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>44810</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>6587</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2947,50 +3294,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>44810</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>127356</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -3010,50 +3361,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>44810</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>127357</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>66</v>
-      </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3067,50 +3422,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>44810</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>127358</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -3130,50 +3489,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>44810</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>127359</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3185,56 +3548,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>44810</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>127360</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3252,50 +3619,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>44810</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>127361</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3309,50 +3680,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>44810</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>127362</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>99</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" t="s">
-        <v>102</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>92</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -3372,50 +3747,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>44810</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>127363</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -3435,50 +3814,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>44810</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>127364</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3498,50 +3881,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>44810</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>127365</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3555,50 +3942,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>44810</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>40177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>125</v>
       </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>114</v>
-      </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3616,50 +4007,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>44810</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>127366</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3677,50 +4072,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>44810</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>127367</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3740,50 +4139,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>44810</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>91348</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3801,50 +4204,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>44810</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>127368</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3864,50 +4271,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>44810</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>127369</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3921,50 +4332,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>44810</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>127370</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3978,50 +4393,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>44810</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>127371</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4039,50 +4458,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>44810</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>127372</v>
+      </c>
+      <c r="C22" t="s">
+        <v>184</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4100,50 +4523,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>44810</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>24974</v>
+      </c>
+      <c r="C23" t="s">
+        <v>191</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4157,50 +4584,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>44810</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>127373</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="J24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4214,50 +4645,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>44810</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>3236</v>
+      </c>
+      <c r="C25" t="s">
+        <v>204</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="O25" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4273,56 +4708,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="X25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="Y25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>44810</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>127374</v>
+      </c>
+      <c r="C26" t="s">
+        <v>213</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4342,50 +4781,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>44810</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>127375</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="O27" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4403,50 +4846,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>44810</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>127376</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="J28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="K28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4466,50 +4913,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>44810</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>127377</v>
+      </c>
+      <c r="C29" t="s">
+        <v>233</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="J29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="K29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4523,50 +4974,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>44810</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>74232</v>
+      </c>
+      <c r="C30" t="s">
+        <v>239</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="J30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="K30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4584,50 +5039,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>44810</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>127378</v>
+      </c>
+      <c r="C31" t="s">
+        <v>245</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="K31" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="O31" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4647,50 +5106,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>44810</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>127379</v>
+      </c>
+      <c r="C32" t="s">
+        <v>251</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="J32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="K32" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="L32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4710,7 +5173,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33">
@@ -4723,37 +5186,37 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="J33" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="K33" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4767,50 +5230,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>44810</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>18650</v>
+      </c>
+      <c r="C34" t="s">
+        <v>265</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="J34" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4828,50 +5295,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>44810</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>127380</v>
+      </c>
+      <c r="C35" t="s">
+        <v>271</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="J35" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="K35" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="L35" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="O35" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4889,50 +5360,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>44810</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>11667</v>
+      </c>
+      <c r="C36" t="s">
+        <v>279</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="J36" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="K36" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4946,50 +5421,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>44810</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>31950</v>
+      </c>
+      <c r="C37" t="s">
+        <v>285</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="J37" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="K37" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5005,47 +5484,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="X37" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="Y37" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>44810</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>127381</v>
+      </c>
+      <c r="C38" t="s">
+        <v>295</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="J38" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="K38" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
@@ -5064,50 +5547,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>44810</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>2377</v>
+      </c>
+      <c r="C39" t="s">
+        <v>301</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="J39" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -5125,50 +5612,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>44810</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>688</v>
+      </c>
+      <c r="C40" t="s">
+        <v>307</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="J40" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="K40" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="L40" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5180,56 +5671,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="X40" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="Y40" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>44810</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>41950</v>
+      </c>
+      <c r="C41" t="s">
+        <v>316</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="J41" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="K41" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5241,56 +5736,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="X41" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="Y41" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>44810</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>127382</v>
+      </c>
+      <c r="C42" t="s">
+        <v>325</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="J42" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5306,56 +5805,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="X42" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="Y42" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>44810</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>4951</v>
+      </c>
+      <c r="C43" t="s">
+        <v>334</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="J43" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="K43" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="O43" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5371,56 +5874,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="X43" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="Y43" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>44810</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>127383</v>
+      </c>
+      <c r="C44" t="s">
+        <v>342</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="J44" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="K44" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="O44" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5432,56 +5939,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="X44" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="Y44" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>44810</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>127384</v>
+      </c>
+      <c r="C45" t="s">
+        <v>349</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="J45" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="K45" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="O45" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5497,56 +6008,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="X45" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="Y45" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>44810</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>127385</v>
+      </c>
+      <c r="C46" t="s">
+        <v>358</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="J46" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="K46" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5558,56 +6073,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="X46" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="Y46" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>44810</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>677</v>
+      </c>
+      <c r="C47" t="s">
+        <v>367</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="J47" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="K47" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="O47" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5625,47 +6144,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="X47" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="Y47" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>44810</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>127386</v>
+      </c>
+      <c r="C48" t="s">
+        <v>377</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="J48" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="K48" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
@@ -5692,56 +6215,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="X48" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="Y48" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>44810</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>127387</v>
+      </c>
+      <c r="C49" t="s">
+        <v>384</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="J49" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="K49" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="O49" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5757,56 +6284,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="X49" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="Y49" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>44810</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>6843</v>
+      </c>
+      <c r="C50" t="s">
+        <v>394</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="J50" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="K50" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5822,56 +6353,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="X50" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="Y50" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>44810</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>127388</v>
+      </c>
+      <c r="C51" t="s">
+        <v>403</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="J51" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="K51" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="L51" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5885,50 +6420,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>44810</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>127389</v>
+      </c>
+      <c r="C52" t="s">
+        <v>408</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J52" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="K52" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="O52" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5946,50 +6485,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>44810</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>127390</v>
+      </c>
+      <c r="C53" t="s">
+        <v>415</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="J53" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="K53" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="L53" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="O53" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -6009,50 +6552,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>44810</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>86779</v>
+      </c>
+      <c r="C54" t="s">
+        <v>422</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="J54" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="K54" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="L54" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="O54" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6072,50 +6619,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>44810</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>127391</v>
+      </c>
+      <c r="C55" t="s">
+        <v>428</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="J55" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="K55" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="L55" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6133,56 +6684,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="X55" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="Y55" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>44810</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>3638</v>
+      </c>
+      <c r="C56" t="s">
+        <v>435</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="J56" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="K56" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="L56" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6198,56 +6753,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="X56" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="Y56" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>44810</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>127392</v>
+      </c>
+      <c r="C57" t="s">
+        <v>445</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="J57" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="K57" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="L57" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6259,56 +6818,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="X57" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="Y57" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>44810</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>127393</v>
+      </c>
+      <c r="C58" t="s">
+        <v>453</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="J58" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="K58" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="L58" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6326,56 +6889,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="X58" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="Y58" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>44810</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>127394</v>
+      </c>
+      <c r="C59" t="s">
+        <v>462</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="J59" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="K59" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="L59" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="O59" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6387,56 +6954,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="X59" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="Y59" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>44810</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>127395</v>
+      </c>
+      <c r="C60" t="s">
+        <v>469</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="J60" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="K60" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="L60" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="O60" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6458,56 +7029,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="X60" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="Y60" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>44810</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>9509</v>
+      </c>
+      <c r="C61" t="s">
+        <v>477</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="J61" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="K61" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="L61" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6529,47 +7104,51 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="X61" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="Y61" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>44810</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>117837</v>
+      </c>
+      <c r="C62" t="s">
+        <v>484</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="J62" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="K62" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="L62" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
@@ -6596,56 +7175,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="X62" t="s">
-        <v>431</v>
+        <v>491</v>
       </c>
       <c r="Y62" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>44810</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>127396</v>
+      </c>
+      <c r="C63" t="s">
+        <v>493</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="J63" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="K63" t="s">
-        <v>436</v>
+        <v>497</v>
       </c>
       <c r="L63" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="O63" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6669,50 +7252,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>44810</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>6556</v>
+      </c>
+      <c r="C64" t="s">
+        <v>500</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
       <c r="J64" t="s">
+        <v>503</v>
+      </c>
+      <c r="K64" t="s">
+        <v>504</v>
+      </c>
+      <c r="L64" t="s">
+        <v>505</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
         <v>441</v>
       </c>
-      <c r="K64" t="s">
-        <v>442</v>
-      </c>
-      <c r="L64" t="s">
-        <v>443</v>
-      </c>
-      <c r="M64" t="n">
-        <v>4</v>
-      </c>
-      <c r="N64" t="s">
-        <v>387</v>
-      </c>
       <c r="O64" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6734,56 +7321,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
       <c r="X64" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
       <c r="Y64" t="s">
-        <v>446</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>44810</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>2639</v>
+      </c>
+      <c r="C65" t="s">
+        <v>509</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>447</v>
+        <v>510</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>448</v>
+        <v>511</v>
       </c>
       <c r="J65" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="K65" t="s">
-        <v>450</v>
+        <v>513</v>
       </c>
       <c r="L65" t="s">
-        <v>451</v>
+        <v>514</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="O65" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6805,47 +7396,51 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>452</v>
+        <v>515</v>
       </c>
       <c r="X65" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="Y65" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>44810</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>4280</v>
+      </c>
+      <c r="C66" t="s">
+        <v>518</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>455</v>
+        <v>519</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
       <c r="J66" t="s">
-        <v>457</v>
+        <v>521</v>
       </c>
       <c r="K66" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="L66" t="s">
-        <v>459</v>
+        <v>523</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
@@ -6872,56 +7467,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="X66" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="Y66" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>44810</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>127397</v>
+      </c>
+      <c r="C67" t="s">
+        <v>527</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="J67" t="s">
-        <v>465</v>
+        <v>530</v>
       </c>
       <c r="K67" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="L67" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6935,50 +7534,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>44810</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>127398</v>
+      </c>
+      <c r="C68" t="s">
+        <v>534</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="J68" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="K68" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="L68" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6992,50 +7595,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>44810</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>127399</v>
+      </c>
+      <c r="C69" t="s">
+        <v>541</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>475</v>
+        <v>542</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="J69" t="s">
-        <v>477</v>
+        <v>544</v>
       </c>
       <c r="K69" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
       <c r="L69" t="s">
-        <v>479</v>
+        <v>546</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7059,41 +7666,45 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>481</v>
+        <v>548</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>44810</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>30962</v>
+      </c>
+      <c r="C70" t="s">
+        <v>549</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>483</v>
+        <v>551</v>
       </c>
       <c r="J70" t="s">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="K70" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="L70" t="s">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
@@ -7122,41 +7733,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>486</v>
+        <v>554</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>44810</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>127400</v>
+      </c>
+      <c r="C71" t="s">
+        <v>555</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>488</v>
+        <v>557</v>
       </c>
       <c r="J71" t="s">
-        <v>489</v>
+        <v>558</v>
       </c>
       <c r="K71" t="s">
-        <v>490</v>
+        <v>559</v>
       </c>
       <c r="L71" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
@@ -7185,50 +7800,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>44810</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>127401</v>
+      </c>
+      <c r="C72" t="s">
+        <v>561</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>493</v>
+        <v>563</v>
       </c>
       <c r="J72" t="s">
-        <v>494</v>
+        <v>564</v>
       </c>
       <c r="K72" t="s">
-        <v>495</v>
+        <v>565</v>
       </c>
       <c r="L72" t="s">
-        <v>496</v>
+        <v>566</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7252,50 +7871,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>496</v>
+        <v>566</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>44810</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>37595</v>
+      </c>
+      <c r="C73" t="s">
+        <v>567</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>498</v>
+        <v>569</v>
       </c>
       <c r="J73" t="s">
-        <v>499</v>
+        <v>570</v>
       </c>
       <c r="K73" t="s">
-        <v>500</v>
+        <v>571</v>
       </c>
       <c r="L73" t="s">
-        <v>501</v>
+        <v>572</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7319,50 +7942,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>501</v>
+        <v>572</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>44810</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>127402</v>
+      </c>
+      <c r="C74" t="s">
+        <v>573</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>502</v>
+        <v>574</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="J74" t="s">
-        <v>504</v>
+        <v>576</v>
       </c>
       <c r="K74" t="s">
-        <v>505</v>
+        <v>577</v>
       </c>
       <c r="L74" t="s">
-        <v>506</v>
+        <v>578</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7386,41 +8013,45 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>506</v>
+        <v>578</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>44810</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>12200</v>
+      </c>
+      <c r="C75" t="s">
+        <v>580</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>508</v>
+        <v>581</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>509</v>
+        <v>582</v>
       </c>
       <c r="J75" t="s">
-        <v>510</v>
+        <v>583</v>
       </c>
       <c r="K75" t="s">
-        <v>511</v>
+        <v>584</v>
       </c>
       <c r="L75" t="s">
-        <v>512</v>
+        <v>585</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
@@ -7449,50 +8080,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>512</v>
+        <v>585</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>44810</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>127403</v>
+      </c>
+      <c r="C76" t="s">
+        <v>586</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>513</v>
+        <v>587</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>514</v>
+        <v>588</v>
       </c>
       <c r="J76" t="s">
-        <v>515</v>
+        <v>589</v>
       </c>
       <c r="K76" t="s">
-        <v>516</v>
+        <v>590</v>
       </c>
       <c r="L76" t="s">
-        <v>517</v>
+        <v>591</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>518</v>
+        <v>592</v>
       </c>
       <c r="O76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7516,50 +8151,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>519</v>
+        <v>593</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>44810</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>127404</v>
+      </c>
+      <c r="C77" t="s">
+        <v>594</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>520</v>
+        <v>595</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>521</v>
+        <v>596</v>
       </c>
       <c r="J77" t="s">
-        <v>522</v>
+        <v>597</v>
       </c>
       <c r="K77" t="s">
-        <v>523</v>
+        <v>598</v>
       </c>
       <c r="L77" t="s">
-        <v>524</v>
+        <v>599</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>518</v>
+        <v>592</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7583,50 +8222,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>524</v>
+        <v>599</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>44810</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>127405</v>
+      </c>
+      <c r="C78" t="s">
+        <v>600</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>525</v>
+        <v>601</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>526</v>
+        <v>602</v>
       </c>
       <c r="J78" t="s">
-        <v>527</v>
+        <v>603</v>
       </c>
       <c r="K78" t="s">
-        <v>528</v>
+        <v>604</v>
       </c>
       <c r="L78" t="s">
-        <v>529</v>
+        <v>605</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>530</v>
+        <v>606</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7650,50 +8293,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>529</v>
+        <v>605</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>44810</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>127406</v>
+      </c>
+      <c r="C79" t="s">
+        <v>607</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>531</v>
+        <v>608</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>532</v>
+        <v>609</v>
       </c>
       <c r="J79" t="s">
-        <v>533</v>
+        <v>610</v>
       </c>
       <c r="K79" t="s">
-        <v>534</v>
+        <v>611</v>
       </c>
       <c r="L79" t="s">
-        <v>535</v>
+        <v>612</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>536</v>
+        <v>613</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7717,50 +8364,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>537</v>
+        <v>614</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>44810</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>832</v>
+      </c>
+      <c r="C80" t="s">
+        <v>615</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>538</v>
+        <v>616</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>539</v>
+        <v>617</v>
       </c>
       <c r="J80" t="s">
-        <v>540</v>
+        <v>618</v>
       </c>
       <c r="K80" t="s">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="L80" t="s">
-        <v>542</v>
+        <v>620</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>543</v>
+        <v>621</v>
       </c>
       <c r="O80" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7784,50 +8435,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>544</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>44810</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>127407</v>
+      </c>
+      <c r="C81" t="s">
+        <v>623</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>545</v>
+        <v>624</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>546</v>
+        <v>625</v>
       </c>
       <c r="J81" t="s">
-        <v>547</v>
+        <v>626</v>
       </c>
       <c r="K81" t="s">
-        <v>548</v>
+        <v>627</v>
       </c>
       <c r="L81" t="s">
-        <v>549</v>
+        <v>628</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>543</v>
+        <v>621</v>
       </c>
       <c r="O81" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -7851,50 +8506,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>549</v>
+        <v>628</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>44810</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>127408</v>
+      </c>
+      <c r="C82" t="s">
+        <v>629</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>551</v>
+        <v>631</v>
       </c>
       <c r="J82" t="s">
-        <v>552</v>
+        <v>632</v>
       </c>
       <c r="K82" t="s">
-        <v>553</v>
+        <v>633</v>
       </c>
       <c r="L82" t="s">
-        <v>554</v>
+        <v>634</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>543</v>
+        <v>621</v>
       </c>
       <c r="O82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -7918,50 +8577,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>554</v>
+        <v>634</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>44810</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>127409</v>
+      </c>
+      <c r="C83" t="s">
+        <v>635</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="J83" t="s">
-        <v>557</v>
+        <v>638</v>
       </c>
       <c r="K83" t="s">
-        <v>558</v>
+        <v>639</v>
       </c>
       <c r="L83" t="s">
-        <v>559</v>
+        <v>640</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>536</v>
+        <v>613</v>
       </c>
       <c r="O83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -7975,50 +8638,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>560</v>
+        <v>641</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>44810</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>34372</v>
+      </c>
+      <c r="C84" t="s">
+        <v>642</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>561</v>
+        <v>643</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>562</v>
+        <v>644</v>
       </c>
       <c r="J84" t="s">
-        <v>563</v>
+        <v>645</v>
       </c>
       <c r="K84" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="L84" t="s">
-        <v>565</v>
+        <v>647</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>566</v>
+        <v>648</v>
       </c>
       <c r="O84" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8042,50 +8709,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>567</v>
+        <v>649</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>44810</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>127410</v>
+      </c>
+      <c r="C85" t="s">
+        <v>650</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>568</v>
+        <v>651</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>569</v>
+        <v>652</v>
       </c>
       <c r="J85" t="s">
-        <v>570</v>
+        <v>653</v>
       </c>
       <c r="K85" t="s">
-        <v>571</v>
+        <v>654</v>
       </c>
       <c r="L85" t="s">
-        <v>572</v>
+        <v>655</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
       <c r="O85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -8109,50 +8780,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>44810</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>127411</v>
+      </c>
+      <c r="C86" t="s">
+        <v>658</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>575</v>
+        <v>659</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>576</v>
+        <v>660</v>
       </c>
       <c r="J86" t="s">
-        <v>577</v>
+        <v>661</v>
       </c>
       <c r="K86" t="s">
-        <v>578</v>
+        <v>662</v>
       </c>
       <c r="L86" t="s">
-        <v>579</v>
+        <v>663</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>566</v>
+        <v>648</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8176,50 +8851,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>580</v>
+        <v>664</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>44810</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>127412</v>
+      </c>
+      <c r="C87" t="s">
+        <v>665</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>581</v>
+        <v>666</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>582</v>
+        <v>667</v>
       </c>
       <c r="J87" t="s">
-        <v>583</v>
+        <v>668</v>
       </c>
       <c r="K87" t="s">
-        <v>584</v>
+        <v>669</v>
       </c>
       <c r="L87" t="s">
-        <v>585</v>
+        <v>670</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>566</v>
+        <v>648</v>
       </c>
       <c r="O87" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8243,50 +8922,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>586</v>
+        <v>671</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>44810</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>127413</v>
+      </c>
+      <c r="C88" t="s">
+        <v>672</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>587</v>
+        <v>673</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>588</v>
+        <v>674</v>
       </c>
       <c r="J88" t="s">
-        <v>583</v>
+        <v>668</v>
       </c>
       <c r="K88" t="s">
-        <v>589</v>
+        <v>675</v>
       </c>
       <c r="L88" t="s">
-        <v>590</v>
+        <v>676</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>566</v>
+        <v>648</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8310,41 +8993,45 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>591</v>
+        <v>677</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>44810</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>127414</v>
+      </c>
+      <c r="C89" t="s">
+        <v>678</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>592</v>
+        <v>679</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>593</v>
+        <v>680</v>
       </c>
       <c r="J89" t="s">
-        <v>594</v>
+        <v>681</v>
       </c>
       <c r="K89" t="s">
-        <v>595</v>
+        <v>682</v>
       </c>
       <c r="L89" t="s">
-        <v>596</v>
+        <v>683</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
@@ -8373,50 +9060,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>596</v>
+        <v>683</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>44810</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>127415</v>
+      </c>
+      <c r="C90" t="s">
+        <v>684</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>597</v>
+        <v>685</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>598</v>
+        <v>686</v>
       </c>
       <c r="J90" t="s">
-        <v>599</v>
+        <v>687</v>
       </c>
       <c r="K90" t="s">
-        <v>600</v>
+        <v>688</v>
       </c>
       <c r="L90" t="s">
-        <v>601</v>
+        <v>689</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>566</v>
+        <v>648</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8438,56 +9129,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>602</v>
+        <v>690</v>
       </c>
       <c r="X90" t="s">
-        <v>603</v>
+        <v>691</v>
       </c>
       <c r="Y90" t="s">
-        <v>604</v>
+        <v>692</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>44810</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>86208</v>
+      </c>
+      <c r="C91" t="s">
+        <v>693</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>605</v>
+        <v>694</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>606</v>
+        <v>695</v>
       </c>
       <c r="J91" t="s">
-        <v>607</v>
+        <v>696</v>
       </c>
       <c r="K91" t="s">
-        <v>608</v>
+        <v>697</v>
       </c>
       <c r="L91" t="s">
-        <v>609</v>
+        <v>698</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>610</v>
+        <v>699</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="s"/>
@@ -8501,50 +9196,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>609</v>
+        <v>698</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>44810</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>127416</v>
+      </c>
+      <c r="C92" t="s">
+        <v>700</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>611</v>
+        <v>701</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>612</v>
+        <v>702</v>
       </c>
       <c r="J92" t="s">
-        <v>613</v>
+        <v>703</v>
       </c>
       <c r="K92" t="s">
-        <v>614</v>
+        <v>704</v>
       </c>
       <c r="L92" t="s">
-        <v>615</v>
+        <v>705</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>610</v>
+        <v>699</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="s"/>
       <c r="Q92" t="s"/>
@@ -8556,56 +9255,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="X92" t="s">
-        <v>603</v>
+        <v>691</v>
       </c>
       <c r="Y92" t="s">
-        <v>617</v>
+        <v>707</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>44810</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>127417</v>
+      </c>
+      <c r="C93" t="s">
+        <v>708</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>618</v>
+        <v>709</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>619</v>
+        <v>710</v>
       </c>
       <c r="J93" t="s">
-        <v>613</v>
+        <v>703</v>
       </c>
       <c r="K93" t="s">
-        <v>620</v>
+        <v>711</v>
       </c>
       <c r="L93" t="s">
-        <v>621</v>
+        <v>712</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>610</v>
+        <v>699</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8627,56 +9330,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="X93" t="s">
-        <v>603</v>
+        <v>691</v>
       </c>
       <c r="Y93" t="s">
-        <v>622</v>
+        <v>713</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>44810</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>127418</v>
+      </c>
+      <c r="C94" t="s">
+        <v>714</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>623</v>
+        <v>715</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>624</v>
+        <v>716</v>
       </c>
       <c r="J94" t="s">
-        <v>625</v>
+        <v>717</v>
       </c>
       <c r="K94" t="s">
-        <v>626</v>
+        <v>718</v>
       </c>
       <c r="L94" t="s">
-        <v>627</v>
+        <v>719</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>610</v>
+        <v>699</v>
       </c>
       <c r="O94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8698,56 +9405,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>628</v>
+        <v>720</v>
       </c>
       <c r="X94" t="s">
-        <v>629</v>
+        <v>721</v>
       </c>
       <c r="Y94" t="s">
-        <v>630</v>
+        <v>722</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>44810</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>127419</v>
+      </c>
+      <c r="C95" t="s">
+        <v>723</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>631</v>
+        <v>724</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>632</v>
+        <v>725</v>
       </c>
       <c r="J95" t="s">
-        <v>633</v>
+        <v>726</v>
       </c>
       <c r="K95" t="s">
-        <v>634</v>
+        <v>727</v>
       </c>
       <c r="L95" t="s">
-        <v>635</v>
+        <v>728</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>610</v>
+        <v>699</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -8769,56 +9480,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>636</v>
+        <v>729</v>
       </c>
       <c r="X95" t="s">
-        <v>637</v>
+        <v>730</v>
       </c>
       <c r="Y95" t="s">
-        <v>638</v>
+        <v>731</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>44810</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>127420</v>
+      </c>
+      <c r="C96" t="s">
+        <v>732</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>639</v>
+        <v>733</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>640</v>
+        <v>734</v>
       </c>
       <c r="J96" t="s">
-        <v>641</v>
+        <v>735</v>
       </c>
       <c r="K96" t="s">
-        <v>642</v>
+        <v>736</v>
       </c>
       <c r="L96" t="s">
-        <v>643</v>
+        <v>737</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>610</v>
+        <v>699</v>
       </c>
       <c r="O96" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8842,50 +9557,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>644</v>
+        <v>738</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>44810</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>8507</v>
+      </c>
+      <c r="C97" t="s">
+        <v>739</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>645</v>
+        <v>740</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>646</v>
+        <v>741</v>
       </c>
       <c r="J97" t="s">
-        <v>647</v>
+        <v>742</v>
       </c>
       <c r="K97" t="s">
-        <v>648</v>
+        <v>743</v>
       </c>
       <c r="L97" t="s">
-        <v>649</v>
+        <v>744</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>650</v>
+        <v>745</v>
       </c>
       <c r="O97" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8909,50 +9628,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>649</v>
+        <v>744</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>44810</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>127421</v>
+      </c>
+      <c r="C98" t="s">
+        <v>746</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>651</v>
+        <v>747</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>652</v>
+        <v>748</v>
       </c>
       <c r="J98" t="s">
-        <v>653</v>
+        <v>749</v>
       </c>
       <c r="K98" t="s">
-        <v>654</v>
+        <v>750</v>
       </c>
       <c r="L98" t="s">
-        <v>655</v>
+        <v>751</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>656</v>
+        <v>752</v>
       </c>
       <c r="O98" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8976,50 +9699,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>655</v>
+        <v>751</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>44810</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>127422</v>
+      </c>
+      <c r="C99" t="s">
+        <v>753</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>657</v>
+        <v>754</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>658</v>
+        <v>755</v>
       </c>
       <c r="J99" t="s">
-        <v>659</v>
+        <v>756</v>
       </c>
       <c r="K99" t="s">
-        <v>660</v>
+        <v>757</v>
       </c>
       <c r="L99" t="s">
-        <v>661</v>
+        <v>758</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>662</v>
+        <v>759</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>3</v>
@@ -9043,50 +9770,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>661</v>
+        <v>758</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>44810</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>127423</v>
+      </c>
+      <c r="C100" t="s">
+        <v>760</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>663</v>
+        <v>761</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>664</v>
+        <v>762</v>
       </c>
       <c r="J100" t="s">
-        <v>665</v>
+        <v>763</v>
       </c>
       <c r="K100" t="s">
-        <v>666</v>
+        <v>764</v>
       </c>
       <c r="L100" t="s">
-        <v>667</v>
+        <v>765</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>668</v>
+        <v>766</v>
       </c>
       <c r="O100" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9110,50 +9841,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>667</v>
+        <v>765</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>44810</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>127424</v>
+      </c>
+      <c r="C101" t="s">
+        <v>767</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>669</v>
+        <v>768</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>670</v>
+        <v>769</v>
       </c>
       <c r="J101" t="s">
-        <v>671</v>
+        <v>770</v>
       </c>
       <c r="K101" t="s">
-        <v>672</v>
+        <v>771</v>
       </c>
       <c r="L101" t="s">
-        <v>673</v>
+        <v>772</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>674</v>
+        <v>773</v>
       </c>
       <c r="O101" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9177,50 +9912,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>675</v>
+        <v>774</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>44810</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>127425</v>
+      </c>
+      <c r="C102" t="s">
+        <v>775</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>676</v>
+        <v>776</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>677</v>
+        <v>777</v>
       </c>
       <c r="J102" t="s">
-        <v>678</v>
+        <v>778</v>
       </c>
       <c r="K102" t="s">
-        <v>679</v>
+        <v>779</v>
       </c>
       <c r="L102" t="s">
-        <v>680</v>
+        <v>780</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>674</v>
+        <v>773</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9244,50 +9983,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>680</v>
+        <v>780</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>44810</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>127426</v>
+      </c>
+      <c r="C103" t="s">
+        <v>781</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>681</v>
+        <v>782</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>682</v>
+        <v>783</v>
       </c>
       <c r="J103" t="s">
-        <v>683</v>
+        <v>784</v>
       </c>
       <c r="K103" t="s">
-        <v>684</v>
+        <v>785</v>
       </c>
       <c r="L103" t="s">
-        <v>685</v>
+        <v>786</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>656</v>
+        <v>752</v>
       </c>
       <c r="O103" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P103" t="s"/>
       <c r="Q103" t="s"/>
@@ -9301,50 +10044,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>685</v>
+        <v>786</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>44810</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>127427</v>
+      </c>
+      <c r="C104" t="s">
+        <v>787</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>686</v>
+        <v>788</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>687</v>
+        <v>789</v>
       </c>
       <c r="J104" t="s">
-        <v>688</v>
+        <v>790</v>
       </c>
       <c r="K104" t="s">
-        <v>689</v>
+        <v>791</v>
       </c>
       <c r="L104" t="s">
-        <v>690</v>
+        <v>792</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>656</v>
+        <v>752</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9368,41 +10115,45 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>691</v>
+        <v>793</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>44810</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>38728</v>
+      </c>
+      <c r="C105" t="s">
+        <v>794</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>692</v>
+        <v>795</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>693</v>
+        <v>796</v>
       </c>
       <c r="J105" t="s">
-        <v>694</v>
+        <v>797</v>
       </c>
       <c r="K105" t="s">
-        <v>695</v>
+        <v>798</v>
       </c>
       <c r="L105" t="s">
-        <v>696</v>
+        <v>799</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
@@ -9431,50 +10182,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>696</v>
+        <v>799</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>44810</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>127405</v>
+      </c>
+      <c r="C106" t="s">
+        <v>607</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>697</v>
+        <v>800</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>698</v>
+        <v>801</v>
       </c>
       <c r="J106" t="s">
-        <v>699</v>
+        <v>802</v>
       </c>
       <c r="K106" t="s">
-        <v>700</v>
+        <v>803</v>
       </c>
       <c r="L106" t="s">
-        <v>701</v>
+        <v>804</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>702</v>
+        <v>805</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -9498,50 +10253,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>701</v>
+        <v>804</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>44810</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>127428</v>
+      </c>
+      <c r="C107" t="s">
+        <v>806</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>703</v>
+        <v>807</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>704</v>
+        <v>808</v>
       </c>
       <c r="J107" t="s">
-        <v>705</v>
+        <v>809</v>
       </c>
       <c r="K107" t="s">
-        <v>706</v>
+        <v>810</v>
       </c>
       <c r="L107" t="s">
-        <v>707</v>
+        <v>811</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>708</v>
+        <v>812</v>
       </c>
       <c r="O107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9565,50 +10324,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>709</v>
+        <v>813</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>44810</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>127429</v>
+      </c>
+      <c r="C108" t="s">
+        <v>814</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>710</v>
+        <v>815</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>711</v>
+        <v>816</v>
       </c>
       <c r="J108" t="s">
-        <v>712</v>
+        <v>817</v>
       </c>
       <c r="K108" t="s">
-        <v>713</v>
+        <v>818</v>
       </c>
       <c r="L108" t="s">
-        <v>714</v>
+        <v>819</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>715</v>
+        <v>820</v>
       </c>
       <c r="O108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -9632,50 +10395,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>714</v>
+        <v>819</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>44810</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>127430</v>
+      </c>
+      <c r="C109" t="s">
+        <v>821</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>716</v>
+        <v>822</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>717</v>
+        <v>823</v>
       </c>
       <c r="J109" t="s">
-        <v>718</v>
+        <v>824</v>
       </c>
       <c r="K109" t="s">
-        <v>719</v>
+        <v>825</v>
       </c>
       <c r="L109" t="s">
-        <v>720</v>
+        <v>826</v>
       </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
       <c r="N109" t="s">
-        <v>721</v>
+        <v>827</v>
       </c>
       <c r="O109" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P109" t="n">
         <v>1</v>
@@ -9699,50 +10466,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>720</v>
+        <v>826</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>44810</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>127431</v>
+      </c>
+      <c r="C110" t="s">
+        <v>828</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>722</v>
+        <v>829</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>723</v>
+        <v>830</v>
       </c>
       <c r="J110" t="s">
-        <v>724</v>
+        <v>831</v>
       </c>
       <c r="K110" t="s">
-        <v>725</v>
+        <v>832</v>
       </c>
       <c r="L110" t="s">
-        <v>726</v>
+        <v>833</v>
       </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
       <c r="N110" t="s">
-        <v>727</v>
+        <v>834</v>
       </c>
       <c r="O110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P110" t="n">
         <v>2</v>
@@ -9766,50 +10537,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>726</v>
+        <v>833</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>44810</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>127432</v>
+      </c>
+      <c r="C111" t="s">
+        <v>835</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>728</v>
+        <v>836</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>729</v>
+        <v>837</v>
       </c>
       <c r="J111" t="s">
-        <v>730</v>
+        <v>838</v>
       </c>
       <c r="K111" t="s">
-        <v>731</v>
+        <v>839</v>
       </c>
       <c r="L111" t="s">
-        <v>732</v>
+        <v>840</v>
       </c>
       <c r="M111" t="n">
         <v>3</v>
       </c>
       <c r="N111" t="s">
-        <v>733</v>
+        <v>841</v>
       </c>
       <c r="O111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P111" t="n">
         <v>3</v>
@@ -9833,50 +10608,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>732</v>
+        <v>840</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>44810</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>20009</v>
+      </c>
+      <c r="C112" t="s">
+        <v>842</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>734</v>
+        <v>843</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>735</v>
+        <v>844</v>
       </c>
       <c r="J112" t="s">
-        <v>736</v>
+        <v>845</v>
       </c>
       <c r="K112" t="s">
-        <v>737</v>
+        <v>846</v>
       </c>
       <c r="L112" t="s">
-        <v>738</v>
+        <v>847</v>
       </c>
       <c r="M112" t="n">
         <v>4</v>
       </c>
       <c r="N112" t="s">
-        <v>739</v>
+        <v>848</v>
       </c>
       <c r="O112" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -9900,50 +10679,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>740</v>
+        <v>849</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>44810</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>127433</v>
+      </c>
+      <c r="C113" t="s">
+        <v>850</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>741</v>
+        <v>851</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>742</v>
+        <v>852</v>
       </c>
       <c r="J113" t="s">
-        <v>743</v>
+        <v>853</v>
       </c>
       <c r="K113" t="s">
-        <v>744</v>
+        <v>854</v>
       </c>
       <c r="L113" t="s">
-        <v>745</v>
+        <v>855</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>746</v>
+        <v>856</v>
       </c>
       <c r="O113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P113" t="n">
         <v>3</v>
@@ -9967,50 +10750,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>747</v>
+        <v>857</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>44810</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>127434</v>
+      </c>
+      <c r="C114" t="s">
+        <v>858</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>748</v>
+        <v>859</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>749</v>
+        <v>860</v>
       </c>
       <c r="J114" t="s">
-        <v>750</v>
+        <v>861</v>
       </c>
       <c r="K114" t="s">
-        <v>751</v>
+        <v>862</v>
       </c>
       <c r="L114" t="s">
-        <v>752</v>
+        <v>863</v>
       </c>
       <c r="M114" t="n">
         <v>5</v>
       </c>
       <c r="N114" t="s">
-        <v>753</v>
+        <v>864</v>
       </c>
       <c r="O114" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
@@ -10034,41 +10821,45 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>752</v>
+        <v>863</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>44810</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>127435</v>
+      </c>
+      <c r="C115" t="s">
+        <v>865</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>754</v>
+        <v>866</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>755</v>
+        <v>867</v>
       </c>
       <c r="J115" t="s">
-        <v>756</v>
+        <v>868</v>
       </c>
       <c r="K115" t="s">
-        <v>757</v>
+        <v>869</v>
       </c>
       <c r="L115" t="s">
-        <v>758</v>
+        <v>870</v>
       </c>
       <c r="M115" t="n">
         <v>4</v>
@@ -10097,41 +10888,45 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>758</v>
+        <v>870</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>44810</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>127436</v>
+      </c>
+      <c r="C116" t="s">
+        <v>871</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>759</v>
+        <v>872</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>760</v>
+        <v>873</v>
       </c>
       <c r="J116" t="s">
-        <v>761</v>
+        <v>874</v>
       </c>
       <c r="K116" t="s">
-        <v>762</v>
+        <v>875</v>
       </c>
       <c r="L116" t="s">
-        <v>763</v>
+        <v>876</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
@@ -10158,7 +10953,7 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>763</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
